--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2584701.098330111</v>
+        <v>-2587752.342283952</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858983</v>
+        <v>8656875.781858971</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>301.2973257809175</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.96510530585661</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -862,13 +862,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>205.3743261851594</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163.939837924303</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>284.6200697443034</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>118.0056219508402</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>315.9099902864843</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.786859782538162</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>239.5185571033091</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083901</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.5769297729266</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851125</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734104173</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132191952</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>85.09628919973866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.5769297729266</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851125</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734104173</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>42.32069823343538</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.5769297729266</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851125</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734104173</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.60560362416848</v>
+        <v>36.6056036241606</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.64750517800761</v>
+        <v>64.64750517800795</v>
       </c>
       <c r="S25" t="n">
-        <v>165.4843778394022</v>
+        <v>165.4843778394023</v>
       </c>
       <c r="T25" t="n">
         <v>195.2643017841295</v>
       </c>
       <c r="U25" t="n">
-        <v>261.9271907135731</v>
+        <v>261.9271907135732</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541847</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652545</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,13 +3478,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C2" t="n">
-        <v>549.649320534154</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="D2" t="n">
-        <v>549.649320534154</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>549.649320534154</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>549.649320534154</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>131.6855124323408</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>131.6855124323408</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4510,10 +4510,10 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>557.4050153476338</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T4" t="n">
         <v>343.1165921657965</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594257</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="6">
@@ -4644,7 +4644,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641994</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>533.4554588638564</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D8" t="n">
-        <v>533.4554588638564</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E8" t="n">
-        <v>533.4554588638564</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F8" t="n">
-        <v>526.5099581146529</v>
+        <v>74.72179980352927</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>60.79839574212017</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4966,37 +4966,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5027,13 +5027,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,13 +5045,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422546</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C13" t="n">
         <v>95.56103444839442</v>
@@ -5242,7 +5242,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5282,7 +5282,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1088.893283004706</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
         <v>1622.425187676631</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5498,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074184</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972626</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1069.293752345669</v>
       </c>
       <c r="M17" t="n">
-        <v>2047.844055175503</v>
+        <v>1622.425187676642</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2602.177459903285</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973202</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161932</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549419</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494864</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763713</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390259</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193716</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320349</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454348</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008801</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442049</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926999</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518524</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952182</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931522</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>823.3173065018362</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>595.3277556038189</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>374.5351764602888</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074184</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>657.3479225192326</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.866738172585</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676631</v>
+        <v>2055.398642844506</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2602.177459903285</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973202</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161932</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549419</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494864</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763713</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390259</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193716</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320349</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454348</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008801</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442049</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926999</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518524</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952182</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931522</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501048</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626692</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208049</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413794</v>
+        <v>709.6864413838443</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433621</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998319</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074184</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427157</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196068</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2337.214217867989</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2883.993034926768</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986043</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432986</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973202</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161932</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549419</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494864</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763713</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390259</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193716</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320349</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454348</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008801</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.5293200614543</v>
+        <v>402.5293200614463</v>
       </c>
       <c r="C25" t="n">
-        <v>258.1230840952036</v>
+        <v>258.1230840951957</v>
       </c>
       <c r="D25" t="n">
-        <v>132.5363916445242</v>
+        <v>132.5363916445162</v>
       </c>
       <c r="E25" t="n">
-        <v>132.5363916445242</v>
+        <v>132.5363916445162</v>
       </c>
       <c r="F25" t="n">
-        <v>132.5363916445242</v>
+        <v>132.5363916445162</v>
       </c>
       <c r="G25" t="n">
-        <v>132.5363916445242</v>
+        <v>132.5363916445162</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>164.7254679124493</v>
+        <v>164.7254679124488</v>
       </c>
       <c r="K25" t="n">
-        <v>392.7544518784449</v>
+        <v>392.7544518784436</v>
       </c>
       <c r="L25" t="n">
-        <v>733.3560513440603</v>
+        <v>733.356051344058</v>
       </c>
       <c r="M25" t="n">
-        <v>1101.554897960729</v>
+        <v>1101.554897960725</v>
       </c>
       <c r="N25" t="n">
-        <v>1467.005075683713</v>
+        <v>1467.005075683708</v>
       </c>
       <c r="O25" t="n">
-        <v>1790.376475621245</v>
+        <v>1790.37647562124</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.025777072024</v>
+        <v>2047.025777072017</v>
       </c>
       <c r="Q25" t="n">
-        <v>2148.677874241658</v>
+        <v>2148.677874241651</v>
       </c>
       <c r="R25" t="n">
-        <v>2083.377363960843</v>
+        <v>2083.377363960835</v>
       </c>
       <c r="S25" t="n">
-        <v>1916.221426749325</v>
+        <v>1916.221426749317</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.984758280508</v>
+        <v>1718.9847582805</v>
       </c>
       <c r="U25" t="n">
-        <v>1454.411838367807</v>
+        <v>1454.411838367799</v>
       </c>
       <c r="V25" t="n">
-        <v>1224.257297123577</v>
+        <v>1224.257297123569</v>
       </c>
       <c r="W25" t="n">
-        <v>959.3700740482725</v>
+        <v>959.3700740482645</v>
       </c>
       <c r="X25" t="n">
-        <v>755.9104701119114</v>
+        <v>755.9104701119035</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.6478379300377</v>
+        <v>559.6478379300297</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,28 +6406,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6549,7 +6549,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6661,7 +6661,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6783,10 +6783,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7075,22 +7075,22 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,28 +7099,28 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438164</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998423</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7345,34 +7345,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,37 +7801,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>39.4832155777267</v>
+        <v>388.4310778980899</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>19.79750571619286</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571621355</v>
       </c>
       <c r="N17" t="n">
-        <v>7.630896635345266</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>39.4832155777475</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>19.79750571619365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>19.79750571619275</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>308.4529749292328</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-6.335700197918379e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>76.51914289834424</v>
+        <v>53.38571583976545</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>74.96621093900464</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.66077927292486</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>52.93301344632259</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.7364564735463</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>92.48912964370471</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983833</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004769</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605697398</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>201.4267091368523</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983833</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004769</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>183.3889571556018</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>141.7411607669885</v>
       </c>
       <c r="H25" t="n">
-        <v>83.86476379811256</v>
+        <v>83.86476379812052</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779838</v>
+        <v>72.06777291779859</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1278564.276822455</v>
+        <v>1278564.276822456</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.515374715721313e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735916</v>
+        <v>376527.1335735946</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123255.8861912282</v>
+        <v>123255.8861912286</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26427,37 +26427,37 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709212</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709212</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018535</v>
+        <v>29610.46726018559</v>
       </c>
       <c r="J4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="K4" t="n">
+        <v>12448.5078997516</v>
+      </c>
+      <c r="L4" t="n">
         <v>12448.50789975159</v>
       </c>
-      <c r="L4" t="n">
-        <v>12448.50789975158</v>
-      </c>
       <c r="M4" t="n">
+        <v>12448.5078997516</v>
+      </c>
+      <c r="N4" t="n">
         <v>12448.50789975161</v>
       </c>
-      <c r="N4" t="n">
-        <v>12448.50789975154</v>
-      </c>
       <c r="O4" t="n">
-        <v>12448.50789975158</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371356</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371356</v>
       </c>
       <c r="I5" t="n">
-        <v>98425.10428372194</v>
+        <v>98425.10428372186</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-796082.8434691821</v>
+        <v>-796384.8524372566</v>
       </c>
       <c r="C6" t="n">
         <v>-275065.6744558392</v>
@@ -26528,22 +26528,22 @@
         <v>-275065.6744558392</v>
       </c>
       <c r="E6" t="n">
-        <v>-845380.5402442121</v>
+        <v>-845447.7357344379</v>
       </c>
       <c r="F6" t="n">
-        <v>-118003.1262508055</v>
+        <v>-118070.3217410313</v>
       </c>
       <c r="G6" t="n">
-        <v>-118003.1262508055</v>
+        <v>-118070.3217410283</v>
       </c>
       <c r="H6" t="n">
-        <v>-118003.1262508055</v>
+        <v>-118070.3217410315</v>
       </c>
       <c r="I6" t="n">
-        <v>-147463.2895375391</v>
+        <v>-147495.7471023293</v>
       </c>
       <c r="J6" t="n">
-        <v>-492139.7573272586</v>
+        <v>-492139.7573272616</v>
       </c>
       <c r="K6" t="n">
         <v>-115612.623753667</v>
@@ -26555,7 +26555,7 @@
         <v>-245254.9385926118</v>
       </c>
       <c r="N6" t="n">
-        <v>-135040.3417472987</v>
+        <v>-135040.3417472988</v>
       </c>
       <c r="O6" t="n">
         <v>-115612.623753667</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593294</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593294</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593294</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.496590797527398e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483798</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>278.1638987223387</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.771212764859513</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>172.7766419427145</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9905321479588</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>101.6178689117502</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>242.6756726418388</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>168.5173763857508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>97.87417973431064</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.135912981819</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.76331713866858</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.38101186168158</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284465</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974793</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003788</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623166</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574964</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990094993</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.151212309903</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746389</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781671</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563558</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806911</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451113</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345264</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502557</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798522</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752225</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026581</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353142</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138776</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233451</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.64781668379</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970228</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002909</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987475</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905535</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238299</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.44815837589846</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462209</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.96517109943053</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311872</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451741995</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702015</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098808</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316421</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883103</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.768002308599</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880216</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895874</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071218</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553022</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112262</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.107191150878029</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.38101186168158</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284465</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974793</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003788</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623166</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574964</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990094993</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.151212309903</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746389</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781671</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563558</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806911</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451113</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345264</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502557</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798522</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752225</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026581</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353142</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138776</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233451</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.64781668379</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970228</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002909</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987475</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905535</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238299</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.44815837589846</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462209</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.96517109943053</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311872</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451741995</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702015</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098808</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316421</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883103</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.768002308599</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880216</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895874</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071218</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553022</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112262</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.107191150878029</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.38101186168158</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284465</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974793</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003788</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623166</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574964</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990094993</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.151212309903</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746389</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781671</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563558</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806911</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451113</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345264</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502557</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798522</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752225</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026581</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353142</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138776</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233451</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.64781668379</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970228</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002909</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987475</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905535</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238299</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.44815837589846</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462209</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.96517109943053</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311872</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451741995</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702015</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098808</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316421</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883103</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.768002308599</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880216</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895874</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071218</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553022</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112262</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.107191150878029</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437246</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,16 +35413,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>591.7850509906382</v>
+        <v>940.7329133110014</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>475.387620108525</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865553982</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923293</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>558.7186215464372</v>
       </c>
       <c r="N17" t="n">
-        <v>559.9327320482565</v>
+        <v>989.6487598248925</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509616</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908519</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636223</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152061</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453599137</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609552</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340034</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013268</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004567</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525784</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859607</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612726</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306568</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443187</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170197</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934826</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675389</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226387</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451095</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.394238537893</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>376.6745021331457</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427798</v>
       </c>
       <c r="M20" t="n">
-        <v>558.7186215464202</v>
+        <v>538.9211158302237</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129083</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509616</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908519</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636223</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152061</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453599137</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609552</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340034</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013268</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004567</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525784</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859607</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612726</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306568</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443187</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170197</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934826</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675389</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226387</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451095</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.394238537893</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.336699126563</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427798</v>
       </c>
       <c r="M23" t="n">
-        <v>558.7186215464193</v>
+        <v>538.9211158302237</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129083</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>816.5059758174491</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908519</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037176</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152061</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453599137</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609552</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340034</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013268</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004567</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525784</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859607</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612726</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.86306410510593</v>
+        <v>69.86306410510541</v>
       </c>
       <c r="K25" t="n">
-        <v>230.3323070363593</v>
+        <v>230.3323070363584</v>
       </c>
       <c r="L25" t="n">
-        <v>344.0420196622378</v>
+        <v>344.0420196622367</v>
       </c>
       <c r="M25" t="n">
-        <v>371.9180268855235</v>
+        <v>371.9180268855224</v>
       </c>
       <c r="N25" t="n">
-        <v>369.1415936595798</v>
+        <v>369.1415936595786</v>
       </c>
       <c r="O25" t="n">
-        <v>326.6377777146795</v>
+        <v>326.6377777146784</v>
       </c>
       <c r="P25" t="n">
-        <v>259.2417186371501</v>
+        <v>259.2417186371492</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.6788860299334</v>
+        <v>102.6788860299327</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.6869047919381</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902372</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.133804440247</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992802</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.557074493085</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819472</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,16 +37947,16 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
